--- a/src/uploads/motores.xlsx
+++ b/src/uploads/motores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jefferson Sena\Desktop\APP - TANAKA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jefferson Sena\Documents\Estudo2\back-end-TAG\src\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41224962-1544-4414-98DC-D351D6A1D123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8196BB-6BAE-49DD-84CC-F9B8A1CA6221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1530">
   <si>
     <t>Numero</t>
   </si>
@@ -4621,6 +4621,9 @@
   </si>
   <si>
     <t>Gaveta</t>
+  </si>
+  <si>
+    <t>fotoURL</t>
   </si>
 </sst>
 </file>
@@ -4993,24 +4996,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFD01E4-E2C3-D24E-8BED-C72B86A72CBD}">
-  <dimension ref="A1:L475"/>
+  <dimension ref="A1:M475"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="64.08203125" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
-    <col min="5" max="5" width="12.4140625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="64.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
     <col min="10" max="10" width="23.75" customWidth="1"/>
-    <col min="12" max="12" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5047,8 +5050,11 @@
       <c r="L1" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5071,7 +5077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="D3" t="s">
         <v>10</v>
       </c>
@@ -5091,7 +5097,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5123,7 +5129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5198,7 +5204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -5227,7 +5233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -5256,7 +5262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -5267,7 +5273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>41</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -5324,7 +5330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -5356,7 +5362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>54</v>
       </c>

--- a/src/uploads/motores.xlsx
+++ b/src/uploads/motores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jefferson Sena\Documents\Estudo2\back-end-TAG\src\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jefferson Sena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8196BB-6BAE-49DD-84CC-F9B8A1CA6221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7CF8F7-218D-4D88-8943-346DA9D4F4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4623,7 +4623,7 @@
     <t>Gaveta</t>
   </si>
   <si>
-    <t>fotoURL</t>
+    <t>fotoUrl</t>
   </si>
 </sst>
 </file>
@@ -4999,7 +4999,7 @@
   <dimension ref="A1:M475"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/src/uploads/motores.xlsx
+++ b/src/uploads/motores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jefferson Sena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7CF8F7-218D-4D88-8943-346DA9D4F4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C5591E-9C1D-4014-B553-F239B4677DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4623,7 +4623,7 @@
     <t>Gaveta</t>
   </si>
   <si>
-    <t>fotoUrl</t>
+    <t>fotoURL</t>
   </si>
 </sst>
 </file>
@@ -4999,7 +4999,7 @@
   <dimension ref="A1:M475"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
